--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_24_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_24_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>145552.9549812032</v>
+        <v>25143643.06495944</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>145552.9549812032</v>
+        <v>25143643.06495944</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3331.272112258028</v>
+        <v>296346.8468234284</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3331.272112258028</v>
+        <v>296346.8468234284</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1034819400.206499</v>
+        <v>41486958.44471491</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7528.092489952583</v>
+        <v>851671.79206683</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15033.1503514095</v>
+        <v>1698759.693063021</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22538.2082128664</v>
+        <v>2545847.594059213</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30182.84141608359</v>
+        <v>3395341.768271405</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>37821.49535530079</v>
+        <v>4243646.068947597</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>45460.14929451799</v>
+        <v>5091950.369623788</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53098.80323373518</v>
+        <v>5940254.670299975</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>60737.45717295238</v>
+        <v>6788558.970976163</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>68376.27008598775</v>
+        <v>7636740.793604351</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>76016.01439102311</v>
+        <v>8485107.96324054</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>83655.75869605849</v>
+        <v>9333475.132876733</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>91155.92765933357</v>
+        <v>10179436.02929693</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>98662.07588660863</v>
+        <v>11026586.79925313</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>106392.2520816588</v>
+        <v>11853151.21555402</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>114112.0307815655</v>
+        <v>12677646.53032138</v>
       </c>
     </row>
   </sheetData>
